--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_18.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_18.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992634835237622</v>
+        <v>0.9481363479531313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8244694977541627</v>
+        <v>0.7168899468637218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.81195379961315</v>
+        <v>0.7705911293241284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9954758355234992</v>
+        <v>0.9708809954294838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003065769494997292</v>
+        <v>0.1664972177658151</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173773276761559</v>
+        <v>1.893158228924221</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6726303552385857</v>
+        <v>0.8205822285169918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01063767647840205</v>
+        <v>0.05522695191597594</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1777714747010672</v>
+        <v>1.133179856969164</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05536939131864546</v>
+        <v>0.4080407060157296</v>
       </c>
       <c r="L2" t="n">
-        <v>1.047137054479222</v>
+        <v>0.929377154659583</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05624140388282899</v>
+        <v>0.4144669392444162</v>
       </c>
       <c r="N2" t="n">
-        <v>141.5749133647545</v>
+        <v>37.58555335963296</v>
       </c>
       <c r="O2" t="n">
-        <v>282.9100859079709</v>
+        <v>74.55013694785877</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9992931132059583</v>
+        <v>0.9480885712595987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8239633006418112</v>
+        <v>0.7167817298164345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.811626271483126</v>
+        <v>0.7706536496545797</v>
       </c>
       <c r="E3" t="n">
-        <v>0.995881035240646</v>
+        <v>0.9711737068053898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002942435151837275</v>
+        <v>0.1666505946730187</v>
       </c>
       <c r="G3" t="n">
-        <v>1.177158219182676</v>
+        <v>1.893881876817724</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6738019043685091</v>
+        <v>0.8203585969201048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009684929618172454</v>
+        <v>0.0546717970499065</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1757471600577181</v>
+        <v>1.136163101520015</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05424421768112501</v>
+        <v>0.4082286058975028</v>
       </c>
       <c r="L3" t="n">
-        <v>1.045240754818671</v>
+        <v>0.9293120970343471</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05509850988527858</v>
+        <v>0.4146577983614964</v>
       </c>
       <c r="N3" t="n">
-        <v>141.6570355150614</v>
+        <v>37.58371181167961</v>
       </c>
       <c r="O3" t="n">
-        <v>282.9922080582778</v>
+        <v>74.54829539990543</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9992984952476958</v>
+        <v>0.9480388654019992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239443320986024</v>
+        <v>0.7166694266553044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8122531246727127</v>
+        <v>0.7707125930278759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9959941070155247</v>
+        <v>0.9714607107892812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002920032259421626</v>
+        <v>0.1668101647509126</v>
       </c>
       <c r="G4" t="n">
-        <v>1.177285061918456</v>
+        <v>1.89463284857331</v>
       </c>
       <c r="H4" t="n">
-        <v>0.671559686856394</v>
+        <v>0.8201477598915575</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009419063740341131</v>
+        <v>0.05412746679370976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1709896199069447</v>
+        <v>1.139151545540022</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05403732283729114</v>
+        <v>0.4084240011935055</v>
       </c>
       <c r="L4" t="n">
-        <v>1.044896304147471</v>
+        <v>0.9292444124622968</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05488835665447329</v>
+        <v>0.4148562709380875</v>
       </c>
       <c r="N4" t="n">
-        <v>141.6723212300317</v>
+        <v>37.58179770232114</v>
       </c>
       <c r="O4" t="n">
-        <v>283.0074937732481</v>
+        <v>74.54638129054696</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993043027440509</v>
+        <v>0.9479872387717336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8239152388759063</v>
+        <v>0.7165529942800871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8122336468567753</v>
+        <v>0.7707681089190226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.996067689709357</v>
+        <v>0.9717422962468728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002895858400801565</v>
+        <v>0.1669759010606903</v>
       </c>
       <c r="G5" t="n">
-        <v>1.177479608432586</v>
+        <v>1.89541143240251</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6716293578746131</v>
+        <v>0.8199491827679219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009246048613357438</v>
+        <v>0.05359341328618027</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1692236354415211</v>
+        <v>1.142146693268849</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0538131805490213</v>
+        <v>0.4086268481887727</v>
       </c>
       <c r="L5" t="n">
-        <v>1.044524624380742</v>
+        <v>0.9291741123700202</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05466068434922329</v>
+        <v>0.4150623125707575</v>
       </c>
       <c r="N5" t="n">
-        <v>141.6889474008098</v>
+        <v>37.57981156400832</v>
       </c>
       <c r="O5" t="n">
-        <v>283.0241199440262</v>
+        <v>74.54439515223415</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9992837222183146</v>
+        <v>0.9479337292298639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8236761477516138</v>
+        <v>0.7164324713846312</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8125650255099151</v>
+        <v>0.7708201385659945</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9959888450546559</v>
+        <v>0.9720187610501564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002981525388613606</v>
+        <v>0.1671476820574699</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179078411881644</v>
+        <v>1.89621736955938</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6704440356467705</v>
+        <v>0.8197630757375557</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009431436198870225</v>
+        <v>0.05306907158485515</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1653452326599956</v>
+        <v>1.145145095637481</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05460334594705352</v>
+        <v>0.4088369871445952</v>
       </c>
       <c r="L6" t="n">
-        <v>1.045841778027864</v>
+        <v>0.9291012483130061</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05546329406239889</v>
+        <v>0.4152757610050724</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6306404681093</v>
+        <v>37.57775506730358</v>
       </c>
       <c r="O6" t="n">
-        <v>282.9658130113257</v>
+        <v>74.54233865552941</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992770933868623</v>
+        <v>0.94787829117457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823599691002745</v>
+        <v>0.7163078377266485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8125097382649671</v>
+        <v>0.7708686752299345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.995970634750914</v>
+        <v>0.9722903546500326</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003009118076502277</v>
+        <v>0.1673256541361897</v>
       </c>
       <c r="G7" t="n">
-        <v>1.179589678513381</v>
+        <v>1.897050795404196</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6706417949162107</v>
+        <v>0.8195894629049598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009474254120452587</v>
+        <v>0.05255396858245943</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1650582940257589</v>
+        <v>1.148150818218416</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05485542886991476</v>
+        <v>0.409054585765995</v>
       </c>
       <c r="L7" t="n">
-        <v>1.046266023240811</v>
+        <v>0.9290257581951592</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05571934703930473</v>
+        <v>0.4154967865872403</v>
       </c>
       <c r="N7" t="n">
-        <v>141.6122164819868</v>
+        <v>37.57562668125593</v>
       </c>
       <c r="O7" t="n">
-        <v>282.9473890252032</v>
+        <v>74.54021026948175</v>
       </c>
     </row>
     <row r="8">
@@ -806,144 +806,144 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993374143427152</v>
+        <v>0.9478209713464385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8234389784158491</v>
+        <v>0.7161790711030573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8123148880086485</v>
+        <v>0.7709136548271953</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9969622451716814</v>
+        <v>0.97255741688567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002758030487386408</v>
+        <v>0.1675096672461436</v>
       </c>
       <c r="G8" t="n">
-        <v>1.180664364321966</v>
+        <v>1.897911858409066</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6713387629849956</v>
+        <v>0.8194285734936249</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007142678665243827</v>
+        <v>0.05204745974180162</v>
       </c>
       <c r="J8" t="n">
-        <v>0.141327943086089</v>
+        <v>1.151157112650721</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05251695428512975</v>
+        <v>0.4092794488441163</v>
       </c>
       <c r="L8" t="n">
-        <v>1.042405482066229</v>
+        <v>0.9289477056632354</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05334404381742634</v>
+        <v>0.4157251910340614</v>
       </c>
       <c r="N8" t="n">
-        <v>141.7864768910147</v>
+        <v>37.57342842896021</v>
       </c>
       <c r="O8" t="n">
-        <v>283.1216494342311</v>
+        <v>74.53801201718603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_1</t>
+          <t>model_1_18_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993889346345568</v>
+        <v>0.9477617533272529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8233675464284457</v>
+        <v>0.7160461875041582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8114825806153764</v>
+        <v>0.770955453780273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976431626051087</v>
+        <v>0.9728203150081575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002543575897167172</v>
+        <v>0.1676997740945217</v>
       </c>
       <c r="G9" t="n">
-        <v>1.181142030350648</v>
+        <v>1.898800451646777</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6743158782707743</v>
+        <v>0.8192790610621085</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005541636217975219</v>
+        <v>0.05154884853638575</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1256459816448598</v>
+        <v>1.15416852678901</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05043387648364115</v>
+        <v>0.4095116287659261</v>
       </c>
       <c r="L9" t="n">
-        <v>1.039108183388365</v>
+        <v>0.9288670683605146</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05122815962287814</v>
+        <v>0.415961027557545</v>
       </c>
       <c r="N9" t="n">
-        <v>141.9483687089796</v>
+        <v>37.5711599144697</v>
       </c>
       <c r="O9" t="n">
-        <v>283.283541252196</v>
+        <v>74.53574350269552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_2</t>
+          <t>model_1_18_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993381355485393</v>
+        <v>0.9477006061011262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8233195594853507</v>
+        <v>0.715909172110845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8121046382822882</v>
+        <v>0.7709937417283406</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997029204930619</v>
+        <v>0.9730791169735735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002755028448889389</v>
+        <v>0.1678960742512284</v>
       </c>
       <c r="G10" t="n">
-        <v>1.181462919260083</v>
+        <v>1.89971667421276</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6720908140652068</v>
+        <v>0.8191421072919336</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006985236057586933</v>
+        <v>0.05105800608106822</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1399990020965588</v>
+        <v>1.157183073382457</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05248836489060589</v>
+        <v>0.4097512345939038</v>
       </c>
       <c r="L10" t="n">
-        <v>1.042359324893482</v>
+        <v>0.9287838040525973</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05331500416851763</v>
+        <v>0.4162044069377954</v>
       </c>
       <c r="N10" t="n">
-        <v>141.7886550203099</v>
+        <v>37.56882019328349</v>
       </c>
       <c r="O10" t="n">
-        <v>283.1238275635263</v>
+        <v>74.53340378150931</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993914815857909</v>
+        <v>0.9476374684728349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8232227153643257</v>
+        <v>0.7157680658554888</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8112348630283073</v>
+        <v>0.7710286865966989</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977227950729747</v>
+        <v>0.9733341942444602</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002532974144659339</v>
+        <v>0.1680987641705062</v>
       </c>
       <c r="G11" t="n">
-        <v>1.182110516343304</v>
+        <v>1.900660252392061</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6752019497162294</v>
+        <v>0.8190171115240357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005354396245879646</v>
+        <v>0.05057422786193293</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1229001159669636</v>
+        <v>1.160198692713919</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0503286612643267</v>
+        <v>0.4099984928880912</v>
       </c>
       <c r="L11" t="n">
-        <v>1.03894517850938</v>
+        <v>0.9286978294098178</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05112128736903612</v>
+        <v>0.4164555593029486</v>
       </c>
       <c r="N11" t="n">
-        <v>141.9567222308266</v>
+        <v>37.56640718069298</v>
       </c>
       <c r="O11" t="n">
-        <v>283.291894774043</v>
+        <v>74.5309907689188</v>
       </c>
     </row>
   </sheetData>
